--- a/polyeXplore polymer library data.xlsx
+++ b/polyeXplore polymer library data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29307"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\15 Polyexplore\predictions_polyprop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01722902-F739-46C0-AC8D-90E7D53454C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AD37A95-12C0-4DCB-BA9A-0684C4C18AE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{1F4F3997-3C34-49AE-B682-D2C07066B72A}"/>
   </bookViews>
@@ -149,12 +149,6 @@
     <t>Tensile Strength</t>
   </si>
   <si>
-    <t>Moisture Absorption</t>
-  </si>
-  <si>
-    <t>Modulus</t>
-  </si>
-  <si>
     <t>Impact Strength-N</t>
   </si>
   <si>
@@ -162,6 +156,12 @@
   </si>
   <si>
     <t>Temperature Index</t>
+  </si>
+  <si>
+    <t>Tensile Modulus</t>
+  </si>
+  <si>
+    <t>Moisture Sensitivity</t>
   </si>
 </sst>
 </file>
@@ -603,8 +603,8 @@
   <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F30" sqref="F30"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -615,7 +615,7 @@
     <col min="8" max="9" width="13.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -623,25 +623,25 @@
         <v>34</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>33</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
